--- a/Import_Inventory/Template_OB_Inventory - Copy.xlsx
+++ b/Import_Inventory/Template_OB_Inventory - Copy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="15">
   <si>
     <t>partner_id</t>
   </si>
@@ -56,34 +56,7 @@
     <t>MOGEN_OB</t>
   </si>
   <si>
-    <t>ชื่อ Partner</t>
-  </si>
-  <si>
-    <t>วันที่ยก OB</t>
-  </si>
-  <si>
-    <t>ชื่อ Operation(IT ระบุเอง)</t>
-  </si>
-  <si>
-    <t>location ปลายทาง</t>
-  </si>
-  <si>
     <t>default_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รหัสสินค้า </t>
-  </si>
-  <si>
-    <t>จำนวน</t>
-  </si>
-  <si>
-    <t>ราคา</t>
-  </si>
-  <si>
-    <t>ลำดับที่ (IT ระบุเอง)</t>
-  </si>
-  <si>
-    <t>ชื่อคลังสินค้า</t>
   </si>
   <si>
     <t>SP0029810001</t>
@@ -512,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -552,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -564,36 +537,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.2" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7">
+        <v>45979</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45979</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8">
+        <v>303020015</v>
+      </c>
+      <c r="H2" s="8">
+        <v>100</v>
+      </c>
+      <c r="I2" s="9">
+        <v>100</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -604,26 +577,28 @@
         <v>45979</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7">
         <v>45979</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G3" s="8">
-        <v>303020015</v>
+        <v>406010066</v>
       </c>
       <c r="H3" s="8">
         <v>100</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>100</v>
+      </c>
       <c r="J3" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -634,25 +609,28 @@
         <v>45979</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
         <v>45979</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G4" s="8">
-        <v>406010066</v>
+        <v>402020002</v>
       </c>
       <c r="H4" s="8">
         <v>100</v>
       </c>
+      <c r="I4" s="9">
+        <v>100</v>
+      </c>
       <c r="J4" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -663,25 +641,28 @@
         <v>45979</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
         <v>45979</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="8">
-        <v>402020002</v>
+        <v>402020003</v>
       </c>
       <c r="H5" s="8">
         <v>100</v>
       </c>
+      <c r="I5" s="9">
+        <v>100</v>
+      </c>
       <c r="J5" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -692,25 +673,28 @@
         <v>45979</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
         <v>45979</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G6" s="8">
-        <v>402020003</v>
+        <v>402020001</v>
       </c>
       <c r="H6" s="8">
         <v>100</v>
       </c>
+      <c r="I6" s="9">
+        <v>100</v>
+      </c>
       <c r="J6" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -721,25 +705,28 @@
         <v>45979</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
         <v>45979</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G7" s="8">
-        <v>402020001</v>
+        <v>409090004</v>
       </c>
       <c r="H7" s="8">
         <v>100</v>
       </c>
+      <c r="I7" s="9">
+        <v>100</v>
+      </c>
       <c r="J7" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -750,25 +737,28 @@
         <v>45979</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
         <v>45979</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G8" s="8">
-        <v>409090004</v>
+        <v>409060002</v>
       </c>
       <c r="H8" s="8">
         <v>100</v>
       </c>
+      <c r="I8" s="9">
+        <v>100</v>
+      </c>
       <c r="J8" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -779,25 +769,28 @@
         <v>45979</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7">
         <v>45979</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G9" s="8">
-        <v>409060002</v>
+        <v>409040001</v>
       </c>
       <c r="H9" s="8">
         <v>100</v>
       </c>
+      <c r="I9" s="9">
+        <v>100</v>
+      </c>
       <c r="J9" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -808,25 +801,28 @@
         <v>45979</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
         <v>45979</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G10" s="8">
-        <v>409040001</v>
+        <v>409230007</v>
       </c>
       <c r="H10" s="8">
         <v>100</v>
       </c>
+      <c r="I10" s="9">
+        <v>100</v>
+      </c>
       <c r="J10" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -837,25 +833,28 @@
         <v>45979</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
         <v>45979</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G11" s="8">
-        <v>409230007</v>
+        <v>409250068</v>
       </c>
       <c r="H11" s="8">
         <v>100</v>
       </c>
+      <c r="I11" s="9">
+        <v>100</v>
+      </c>
       <c r="J11" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -866,25 +865,28 @@
         <v>45979</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
         <v>45979</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G12" s="8">
-        <v>409250068</v>
+        <v>409110001</v>
       </c>
       <c r="H12" s="8">
         <v>100</v>
       </c>
+      <c r="I12" s="9">
+        <v>100</v>
+      </c>
       <c r="J12" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -895,25 +897,28 @@
         <v>45979</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
         <v>45979</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G13" s="8">
-        <v>409110001</v>
+        <v>409180005</v>
       </c>
       <c r="H13" s="8">
         <v>100</v>
       </c>
+      <c r="I13" s="9">
+        <v>100</v>
+      </c>
       <c r="J13" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -924,25 +929,28 @@
         <v>45979</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
         <v>45979</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G14" s="8">
-        <v>409180005</v>
+        <v>408010002</v>
       </c>
       <c r="H14" s="8">
         <v>100</v>
       </c>
+      <c r="I14" s="9">
+        <v>100</v>
+      </c>
       <c r="J14" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -953,25 +961,28 @@
         <v>45979</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
         <v>45979</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G15" s="8">
-        <v>408010002</v>
+        <v>409250031</v>
       </c>
       <c r="H15" s="8">
         <v>100</v>
       </c>
+      <c r="I15" s="9">
+        <v>100</v>
+      </c>
       <c r="J15" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -982,25 +993,28 @@
         <v>45979</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
         <v>45979</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G16" s="8">
-        <v>409250031</v>
+        <v>409150003</v>
       </c>
       <c r="H16" s="8">
         <v>100</v>
       </c>
+      <c r="I16" s="9">
+        <v>100</v>
+      </c>
       <c r="J16" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1011,25 +1025,28 @@
         <v>45979</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
         <v>45979</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G17" s="8">
-        <v>409150003</v>
+        <v>409030003</v>
       </c>
       <c r="H17" s="8">
         <v>100</v>
       </c>
+      <c r="I17" s="9">
+        <v>100</v>
+      </c>
       <c r="J17" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1040,25 +1057,28 @@
         <v>45979</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
         <v>45979</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G18" s="8">
-        <v>409030003</v>
+        <v>409050001</v>
       </c>
       <c r="H18" s="8">
         <v>100</v>
       </c>
+      <c r="I18" s="9">
+        <v>100</v>
+      </c>
       <c r="J18" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1069,25 +1089,28 @@
         <v>45979</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
         <v>45979</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G19" s="8">
-        <v>409050001</v>
+        <v>409130001</v>
       </c>
       <c r="H19" s="8">
         <v>100</v>
       </c>
+      <c r="I19" s="9">
+        <v>100</v>
+      </c>
       <c r="J19" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1098,25 +1121,28 @@
         <v>45979</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7">
         <v>45979</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G20" s="8">
-        <v>409130001</v>
+        <v>411040003</v>
       </c>
       <c r="H20" s="8">
         <v>100</v>
       </c>
+      <c r="I20" s="9">
+        <v>100</v>
+      </c>
       <c r="J20" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1127,25 +1153,28 @@
         <v>45979</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D21" s="7">
         <v>45979</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G21" s="8">
-        <v>411040003</v>
+        <v>301010006</v>
       </c>
       <c r="H21" s="8">
         <v>100</v>
       </c>
+      <c r="I21" s="9">
+        <v>100</v>
+      </c>
       <c r="J21" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1156,25 +1185,28 @@
         <v>45979</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
         <v>45979</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="8">
+        <v>411050005</v>
+      </c>
+      <c r="H22" s="8">
+        <v>100</v>
+      </c>
+      <c r="I22" s="9">
+        <v>100</v>
+      </c>
+      <c r="J22" s="10">
         <v>21</v>
-      </c>
-      <c r="G22" s="8">
-        <v>301010006</v>
-      </c>
-      <c r="H22" s="8">
-        <v>100</v>
-      </c>
-      <c r="J22" s="10">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1185,25 +1217,28 @@
         <v>45979</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D23" s="7">
         <v>45979</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="8">
+        <v>410060007</v>
+      </c>
+      <c r="H23" s="8">
+        <v>100</v>
+      </c>
+      <c r="I23" s="9">
+        <v>100</v>
+      </c>
+      <c r="J23" s="10">
         <v>22</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="8">
-        <v>411050005</v>
-      </c>
-      <c r="H23" s="8">
-        <v>100</v>
-      </c>
-      <c r="J23" s="10">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1214,25 +1249,28 @@
         <v>45979</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
+        <v>45979</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="8">
+        <v>411050004</v>
+      </c>
+      <c r="H24" s="8">
+        <v>100</v>
+      </c>
+      <c r="I24" s="9">
+        <v>100</v>
+      </c>
+      <c r="J24" s="10">
         <v>23</v>
-      </c>
-      <c r="D24" s="7">
-        <v>45979</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="8">
-        <v>410060007</v>
-      </c>
-      <c r="H24" s="8">
-        <v>100</v>
-      </c>
-      <c r="J24" s="10">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1243,25 +1281,28 @@
         <v>45979</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D25" s="7">
         <v>45979</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G25" s="8">
-        <v>411050004</v>
+        <v>411040004</v>
       </c>
       <c r="H25" s="8">
         <v>100</v>
       </c>
+      <c r="I25" s="9">
+        <v>100</v>
+      </c>
       <c r="J25" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1272,25 +1313,28 @@
         <v>45979</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D26" s="7">
         <v>45979</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G26" s="8">
-        <v>411040004</v>
+        <v>410060004</v>
       </c>
       <c r="H26" s="8">
         <v>100</v>
       </c>
+      <c r="I26" s="9">
+        <v>100</v>
+      </c>
       <c r="J26" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1301,25 +1345,28 @@
         <v>45979</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D27" s="7">
         <v>45979</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G27" s="8">
-        <v>410060004</v>
+        <v>409250051</v>
       </c>
       <c r="H27" s="8">
         <v>100</v>
       </c>
+      <c r="I27" s="9">
+        <v>100</v>
+      </c>
       <c r="J27" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1330,25 +1377,28 @@
         <v>45979</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D28" s="7">
         <v>45979</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G28" s="8">
-        <v>409250051</v>
+        <v>409250055</v>
       </c>
       <c r="H28" s="8">
         <v>100</v>
       </c>
+      <c r="I28" s="9">
+        <v>100</v>
+      </c>
       <c r="J28" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1359,25 +1409,28 @@
         <v>45979</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D29" s="7">
         <v>45979</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G29" s="8">
-        <v>409250055</v>
+        <v>409250050</v>
       </c>
       <c r="H29" s="8">
         <v>100</v>
       </c>
+      <c r="I29" s="9">
+        <v>100</v>
+      </c>
       <c r="J29" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1388,25 +1441,28 @@
         <v>45979</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D30" s="7">
         <v>45979</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G30" s="8">
-        <v>409250050</v>
+        <v>409170019</v>
       </c>
       <c r="H30" s="8">
         <v>100</v>
       </c>
+      <c r="I30" s="9">
+        <v>100</v>
+      </c>
       <c r="J30" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1417,25 +1473,28 @@
         <v>45979</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D31" s="7">
         <v>45979</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G31" s="8">
-        <v>409170019</v>
+        <v>303020015</v>
       </c>
       <c r="H31" s="8">
         <v>100</v>
       </c>
+      <c r="I31" s="9">
+        <v>100</v>
+      </c>
       <c r="J31" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1446,25 +1505,28 @@
         <v>45979</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D32" s="7">
         <v>45979</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G32" s="8">
-        <v>303020015</v>
+        <v>406010066</v>
       </c>
       <c r="H32" s="8">
         <v>100</v>
       </c>
+      <c r="I32" s="9">
+        <v>100</v>
+      </c>
       <c r="J32" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1475,25 +1537,28 @@
         <v>45979</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D33" s="7">
         <v>45979</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G33" s="8">
-        <v>406010066</v>
+        <v>402020002</v>
       </c>
       <c r="H33" s="8">
         <v>100</v>
       </c>
+      <c r="I33" s="9">
+        <v>100</v>
+      </c>
       <c r="J33" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1504,25 +1569,28 @@
         <v>45979</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D34" s="7">
         <v>45979</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G34" s="8">
-        <v>402020002</v>
+        <v>402020003</v>
       </c>
       <c r="H34" s="8">
         <v>100</v>
       </c>
+      <c r="I34" s="9">
+        <v>100</v>
+      </c>
       <c r="J34" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1533,25 +1601,28 @@
         <v>45979</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D35" s="7">
         <v>45979</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G35" s="8">
-        <v>402020003</v>
+        <v>402020001</v>
       </c>
       <c r="H35" s="8">
         <v>100</v>
       </c>
+      <c r="I35" s="9">
+        <v>100</v>
+      </c>
       <c r="J35" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1562,25 +1633,28 @@
         <v>45979</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D36" s="7">
         <v>45979</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G36" s="8">
-        <v>402020001</v>
+        <v>409090004</v>
       </c>
       <c r="H36" s="8">
         <v>100</v>
       </c>
+      <c r="I36" s="9">
+        <v>100</v>
+      </c>
       <c r="J36" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1591,25 +1665,28 @@
         <v>45979</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D37" s="7">
         <v>45979</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G37" s="8">
-        <v>409090004</v>
+        <v>409060002</v>
       </c>
       <c r="H37" s="8">
         <v>100</v>
       </c>
+      <c r="I37" s="9">
+        <v>100</v>
+      </c>
       <c r="J37" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1620,25 +1697,28 @@
         <v>45979</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D38" s="7">
         <v>45979</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G38" s="8">
-        <v>409060002</v>
+        <v>409040001</v>
       </c>
       <c r="H38" s="8">
         <v>100</v>
       </c>
+      <c r="I38" s="9">
+        <v>100</v>
+      </c>
       <c r="J38" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1649,25 +1729,28 @@
         <v>45979</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D39" s="7">
         <v>45979</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G39" s="8">
-        <v>409040001</v>
+        <v>409230007</v>
       </c>
       <c r="H39" s="8">
         <v>100</v>
       </c>
+      <c r="I39" s="9">
+        <v>100</v>
+      </c>
       <c r="J39" s="10">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1678,25 +1761,28 @@
         <v>45979</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D40" s="7">
         <v>45979</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G40" s="8">
-        <v>409230007</v>
+        <v>409250068</v>
       </c>
       <c r="H40" s="8">
         <v>100</v>
       </c>
+      <c r="I40" s="9">
+        <v>100</v>
+      </c>
       <c r="J40" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1707,25 +1793,28 @@
         <v>45979</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D41" s="7">
         <v>45979</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G41" s="8">
-        <v>409250068</v>
+        <v>409110001</v>
       </c>
       <c r="H41" s="8">
         <v>100</v>
       </c>
+      <c r="I41" s="9">
+        <v>100</v>
+      </c>
       <c r="J41" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1736,25 +1825,28 @@
         <v>45979</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D42" s="7">
         <v>45979</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G42" s="8">
-        <v>409110001</v>
+        <v>409180005</v>
       </c>
       <c r="H42" s="8">
         <v>100</v>
       </c>
+      <c r="I42" s="9">
+        <v>100</v>
+      </c>
       <c r="J42" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1765,25 +1857,28 @@
         <v>45979</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D43" s="7">
         <v>45979</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G43" s="8">
-        <v>409180005</v>
+        <v>408010002</v>
       </c>
       <c r="H43" s="8">
         <v>100</v>
       </c>
+      <c r="I43" s="9">
+        <v>100</v>
+      </c>
       <c r="J43" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1794,25 +1889,28 @@
         <v>45979</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D44" s="7">
         <v>45979</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G44" s="8">
-        <v>408010002</v>
+        <v>409250031</v>
       </c>
       <c r="H44" s="8">
         <v>100</v>
       </c>
+      <c r="I44" s="9">
+        <v>100</v>
+      </c>
       <c r="J44" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1823,25 +1921,28 @@
         <v>45979</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D45" s="7">
         <v>45979</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G45" s="8">
-        <v>409250031</v>
+        <v>409150003</v>
       </c>
       <c r="H45" s="8">
         <v>100</v>
       </c>
+      <c r="I45" s="9">
+        <v>100</v>
+      </c>
       <c r="J45" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1852,25 +1953,28 @@
         <v>45979</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D46" s="7">
         <v>45979</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G46" s="8">
-        <v>409150003</v>
+        <v>409030003</v>
       </c>
       <c r="H46" s="8">
         <v>100</v>
       </c>
+      <c r="I46" s="9">
+        <v>100</v>
+      </c>
       <c r="J46" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1881,25 +1985,28 @@
         <v>45979</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D47" s="7">
         <v>45979</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G47" s="8">
-        <v>409030003</v>
+        <v>409050001</v>
       </c>
       <c r="H47" s="8">
         <v>100</v>
       </c>
+      <c r="I47" s="9">
+        <v>100</v>
+      </c>
       <c r="J47" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1910,25 +2017,28 @@
         <v>45979</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D48" s="7">
         <v>45979</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G48" s="8">
-        <v>409050001</v>
+        <v>409130001</v>
       </c>
       <c r="H48" s="8">
         <v>100</v>
       </c>
+      <c r="I48" s="9">
+        <v>100</v>
+      </c>
       <c r="J48" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1939,25 +2049,28 @@
         <v>45979</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D49" s="7">
         <v>45979</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G49" s="8">
-        <v>409130001</v>
+        <v>411040003</v>
       </c>
       <c r="H49" s="8">
         <v>100</v>
       </c>
+      <c r="I49" s="9">
+        <v>100</v>
+      </c>
       <c r="J49" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1968,25 +2081,28 @@
         <v>45979</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D50" s="7">
         <v>45979</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G50" s="8">
-        <v>411040003</v>
+        <v>301010006</v>
       </c>
       <c r="H50" s="8">
         <v>100</v>
       </c>
+      <c r="I50" s="9">
+        <v>100</v>
+      </c>
       <c r="J50" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1997,25 +2113,28 @@
         <v>45979</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D51" s="7">
         <v>45979</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G51" s="8">
-        <v>301010006</v>
+        <v>411050005</v>
       </c>
       <c r="H51" s="8">
         <v>100</v>
       </c>
+      <c r="I51" s="9">
+        <v>100</v>
+      </c>
       <c r="J51" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2026,25 +2145,28 @@
         <v>45979</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D52" s="7">
         <v>45979</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G52" s="8">
-        <v>411050005</v>
+        <v>410060007</v>
       </c>
       <c r="H52" s="8">
         <v>100</v>
       </c>
+      <c r="I52" s="9">
+        <v>100</v>
+      </c>
       <c r="J52" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2055,25 +2177,28 @@
         <v>45979</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D53" s="7">
         <v>45979</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G53" s="8">
-        <v>410060007</v>
+        <v>411050004</v>
       </c>
       <c r="H53" s="8">
         <v>100</v>
       </c>
+      <c r="I53" s="9">
+        <v>100</v>
+      </c>
       <c r="J53" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2084,25 +2209,28 @@
         <v>45979</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D54" s="7">
         <v>45979</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G54" s="8">
-        <v>411050004</v>
+        <v>411040004</v>
       </c>
       <c r="H54" s="8">
         <v>100</v>
       </c>
+      <c r="I54" s="9">
+        <v>100</v>
+      </c>
       <c r="J54" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2113,25 +2241,28 @@
         <v>45979</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D55" s="7">
         <v>45979</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G55" s="8">
-        <v>411040004</v>
+        <v>410060004</v>
       </c>
       <c r="H55" s="8">
         <v>100</v>
       </c>
+      <c r="I55" s="9">
+        <v>100</v>
+      </c>
       <c r="J55" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2142,25 +2273,28 @@
         <v>45979</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D56" s="7">
         <v>45979</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G56" s="8">
-        <v>410060004</v>
+        <v>409250051</v>
       </c>
       <c r="H56" s="8">
         <v>100</v>
       </c>
+      <c r="I56" s="9">
+        <v>100</v>
+      </c>
       <c r="J56" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2171,25 +2305,28 @@
         <v>45979</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D57" s="7">
         <v>45979</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G57" s="8">
-        <v>409250051</v>
+        <v>409250055</v>
       </c>
       <c r="H57" s="8">
         <v>100</v>
       </c>
+      <c r="I57" s="9">
+        <v>100</v>
+      </c>
       <c r="J57" s="10">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2200,25 +2337,28 @@
         <v>45979</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D58" s="7">
         <v>45979</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G58" s="8">
-        <v>409250055</v>
+        <v>409250050</v>
       </c>
       <c r="H58" s="8">
         <v>100</v>
       </c>
+      <c r="I58" s="9">
+        <v>100</v>
+      </c>
       <c r="J58" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2229,25 +2369,28 @@
         <v>45979</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D59" s="7">
         <v>45979</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G59" s="8">
-        <v>409250050</v>
+        <v>409170019</v>
       </c>
       <c r="H59" s="8">
         <v>100</v>
       </c>
+      <c r="I59" s="9">
+        <v>100</v>
+      </c>
       <c r="J59" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2258,25 +2401,28 @@
         <v>45979</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D60" s="7">
         <v>45979</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G60" s="8">
-        <v>409170019</v>
+        <v>409250054</v>
       </c>
       <c r="H60" s="8">
         <v>100</v>
       </c>
+      <c r="I60" s="9">
+        <v>100</v>
+      </c>
       <c r="J60" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2287,25 +2433,28 @@
         <v>45979</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D61" s="7">
         <v>45979</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G61" s="8">
-        <v>409250054</v>
+        <v>304010030</v>
       </c>
       <c r="H61" s="8">
         <v>100</v>
       </c>
+      <c r="I61" s="9">
+        <v>100</v>
+      </c>
       <c r="J61" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2316,25 +2465,28 @@
         <v>45979</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D62" s="7">
         <v>45979</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G62" s="8">
-        <v>304010030</v>
+        <v>406010104</v>
       </c>
       <c r="H62" s="8">
         <v>100</v>
       </c>
+      <c r="I62" s="9">
+        <v>100</v>
+      </c>
       <c r="J62" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2345,25 +2497,28 @@
         <v>45979</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D63" s="7">
         <v>45979</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G63" s="8">
-        <v>406010104</v>
+        <v>406010107</v>
       </c>
       <c r="H63" s="8">
         <v>100</v>
       </c>
+      <c r="I63" s="9">
+        <v>100</v>
+      </c>
       <c r="J63" s="10">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2374,25 +2529,28 @@
         <v>45979</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D64" s="7">
         <v>45979</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G64" s="8">
-        <v>406010107</v>
+        <v>413010293</v>
       </c>
       <c r="H64" s="8">
         <v>100</v>
       </c>
+      <c r="I64" s="9">
+        <v>100</v>
+      </c>
       <c r="J64" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2403,25 +2561,28 @@
         <v>45979</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D65" s="7">
         <v>45979</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G65" s="8">
-        <v>413010293</v>
+        <v>409040001</v>
       </c>
       <c r="H65" s="8">
         <v>100</v>
       </c>
+      <c r="I65" s="9">
+        <v>100</v>
+      </c>
       <c r="J65" s="10">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2432,25 +2593,28 @@
         <v>45979</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D66" s="7">
         <v>45979</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G66" s="8">
-        <v>409040001</v>
+        <v>409150003</v>
       </c>
       <c r="H66" s="8">
         <v>100</v>
       </c>
+      <c r="I66" s="9">
+        <v>100</v>
+      </c>
       <c r="J66" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2461,25 +2625,28 @@
         <v>45979</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D67" s="7">
         <v>45979</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G67" s="8">
-        <v>409150003</v>
+        <v>409030003</v>
       </c>
       <c r="H67" s="8">
         <v>100</v>
       </c>
+      <c r="I67" s="9">
+        <v>100</v>
+      </c>
       <c r="J67" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2490,25 +2657,28 @@
         <v>45979</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D68" s="7">
         <v>45979</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G68" s="8">
-        <v>409030003</v>
+        <v>409050001</v>
       </c>
       <c r="H68" s="8">
         <v>100</v>
       </c>
+      <c r="I68" s="9">
+        <v>100</v>
+      </c>
       <c r="J68" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2519,25 +2689,28 @@
         <v>45979</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D69" s="7">
         <v>45979</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G69" s="8">
-        <v>409050001</v>
+        <v>409180009</v>
       </c>
       <c r="H69" s="8">
         <v>100</v>
       </c>
+      <c r="I69" s="9">
+        <v>100</v>
+      </c>
       <c r="J69" s="10">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2548,25 +2721,28 @@
         <v>45979</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D70" s="7">
         <v>45979</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G70" s="8">
-        <v>409180009</v>
+        <v>409110001</v>
       </c>
       <c r="H70" s="8">
         <v>100</v>
       </c>
+      <c r="I70" s="9">
+        <v>100</v>
+      </c>
       <c r="J70" s="10">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2577,25 +2753,28 @@
         <v>45979</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D71" s="7">
         <v>45979</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G71" s="8">
-        <v>409110001</v>
+        <v>409090004</v>
       </c>
       <c r="H71" s="8">
         <v>100</v>
       </c>
+      <c r="I71" s="9">
+        <v>100</v>
+      </c>
       <c r="J71" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2606,25 +2785,28 @@
         <v>45979</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D72" s="7">
         <v>45979</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G72" s="8">
-        <v>409090004</v>
+        <v>409190001</v>
       </c>
       <c r="H72" s="8">
         <v>100</v>
       </c>
+      <c r="I72" s="9">
+        <v>100</v>
+      </c>
       <c r="J72" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2635,25 +2817,28 @@
         <v>45979</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D73" s="7">
         <v>45979</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" s="8">
-        <v>409190001</v>
+        <v>12</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="H73" s="8">
         <v>100</v>
       </c>
+      <c r="I73" s="9">
+        <v>100</v>
+      </c>
       <c r="J73" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2664,25 +2849,28 @@
         <v>45979</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D74" s="7">
         <v>45979</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="G74" s="8">
+        <v>409230007</v>
       </c>
       <c r="H74" s="8">
         <v>100</v>
       </c>
+      <c r="I74" s="9">
+        <v>100</v>
+      </c>
       <c r="J74" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2693,25 +2881,28 @@
         <v>45979</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D75" s="7">
         <v>45979</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G75" s="8">
-        <v>409230007</v>
+        <v>409060002</v>
       </c>
       <c r="H75" s="8">
         <v>100</v>
       </c>
+      <c r="I75" s="9">
+        <v>100</v>
+      </c>
       <c r="J75" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2722,25 +2913,28 @@
         <v>45979</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D76" s="7">
         <v>45979</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G76" s="8">
-        <v>409060002</v>
+        <v>409170019</v>
       </c>
       <c r="H76" s="8">
         <v>100</v>
       </c>
+      <c r="I76" s="9">
+        <v>100</v>
+      </c>
       <c r="J76" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2751,25 +2945,28 @@
         <v>45979</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D77" s="7">
         <v>45979</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G77" s="8">
-        <v>409170019</v>
+        <v>409090004</v>
       </c>
       <c r="H77" s="8">
         <v>100</v>
       </c>
+      <c r="I77" s="9">
+        <v>100</v>
+      </c>
       <c r="J77" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2780,25 +2977,28 @@
         <v>45979</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D78" s="7">
         <v>45979</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G78" s="8">
-        <v>409090004</v>
+        <v>409190001</v>
       </c>
       <c r="H78" s="8">
         <v>100</v>
       </c>
+      <c r="I78" s="9">
+        <v>100</v>
+      </c>
       <c r="J78" s="10">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2809,25 +3009,28 @@
         <v>45979</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D79" s="7">
         <v>45979</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="8">
-        <v>409190001</v>
+        <v>12</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="H79" s="8">
         <v>100</v>
       </c>
+      <c r="I79" s="9">
+        <v>100</v>
+      </c>
       <c r="J79" s="10">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2838,25 +3041,28 @@
         <v>45979</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D80" s="7">
         <v>45979</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="G80" s="8">
+        <v>409230007</v>
       </c>
       <c r="H80" s="8">
         <v>100</v>
       </c>
+      <c r="I80" s="9">
+        <v>100</v>
+      </c>
       <c r="J80" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2867,25 +3073,28 @@
         <v>45979</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D81" s="7">
         <v>45979</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G81" s="8">
-        <v>409230007</v>
+        <v>409060002</v>
       </c>
       <c r="H81" s="8">
         <v>100</v>
       </c>
+      <c r="I81" s="9">
+        <v>100</v>
+      </c>
       <c r="J81" s="10">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2896,25 +3105,28 @@
         <v>45979</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D82" s="7">
         <v>45979</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G82" s="8">
-        <v>409060002</v>
+        <v>409170019</v>
       </c>
       <c r="H82" s="8">
         <v>100</v>
       </c>
+      <c r="I82" s="9">
+        <v>100</v>
+      </c>
       <c r="J82" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2925,25 +3137,28 @@
         <v>45979</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D83" s="7">
         <v>45979</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G83" s="8">
-        <v>409170019</v>
+        <v>409250054</v>
       </c>
       <c r="H83" s="8">
         <v>100</v>
       </c>
+      <c r="I83" s="9">
+        <v>100</v>
+      </c>
       <c r="J83" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2954,25 +3169,28 @@
         <v>45979</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D84" s="7">
         <v>45979</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G84" s="8">
-        <v>409250054</v>
+        <v>304010030</v>
       </c>
       <c r="H84" s="8">
         <v>100</v>
       </c>
+      <c r="I84" s="9">
+        <v>100</v>
+      </c>
       <c r="J84" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -2983,25 +3201,28 @@
         <v>45979</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D85" s="7">
         <v>45979</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G85" s="8">
-        <v>304010030</v>
+        <v>406010104</v>
       </c>
       <c r="H85" s="8">
         <v>100</v>
       </c>
+      <c r="I85" s="9">
+        <v>100</v>
+      </c>
       <c r="J85" s="10">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3012,25 +3233,28 @@
         <v>45979</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D86" s="7">
         <v>45979</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G86" s="8">
-        <v>406010104</v>
+        <v>406010107</v>
       </c>
       <c r="H86" s="8">
         <v>100</v>
       </c>
+      <c r="I86" s="9">
+        <v>100</v>
+      </c>
       <c r="J86" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3041,25 +3265,28 @@
         <v>45979</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D87" s="7">
         <v>45979</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G87" s="8">
-        <v>406010107</v>
+        <v>413010293</v>
       </c>
       <c r="H87" s="8">
         <v>100</v>
       </c>
+      <c r="I87" s="9">
+        <v>100</v>
+      </c>
       <c r="J87" s="10">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3070,25 +3297,28 @@
         <v>45979</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D88" s="7">
         <v>45979</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G88" s="8">
-        <v>413010293</v>
+        <v>409040001</v>
       </c>
       <c r="H88" s="8">
         <v>100</v>
       </c>
+      <c r="I88" s="9">
+        <v>100</v>
+      </c>
       <c r="J88" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3099,25 +3329,28 @@
         <v>45979</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D89" s="7">
         <v>45979</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G89" s="8">
-        <v>409040001</v>
+        <v>409150003</v>
       </c>
       <c r="H89" s="8">
         <v>100</v>
       </c>
+      <c r="I89" s="9">
+        <v>100</v>
+      </c>
       <c r="J89" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3128,25 +3361,28 @@
         <v>45979</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D90" s="7">
         <v>45979</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G90" s="8">
-        <v>409150003</v>
+        <v>409030003</v>
       </c>
       <c r="H90" s="8">
         <v>100</v>
       </c>
+      <c r="I90" s="9">
+        <v>100</v>
+      </c>
       <c r="J90" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3157,25 +3393,28 @@
         <v>45979</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D91" s="7">
         <v>45979</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G91" s="8">
-        <v>409030003</v>
+        <v>409050001</v>
       </c>
       <c r="H91" s="8">
         <v>100</v>
       </c>
+      <c r="I91" s="9">
+        <v>100</v>
+      </c>
       <c r="J91" s="10">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3186,25 +3425,28 @@
         <v>45979</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D92" s="7">
         <v>45979</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G92" s="8">
-        <v>409050001</v>
+        <v>409180009</v>
       </c>
       <c r="H92" s="8">
         <v>100</v>
       </c>
+      <c r="I92" s="9">
+        <v>100</v>
+      </c>
       <c r="J92" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3215,53 +3457,27 @@
         <v>45979</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D93" s="7">
         <v>45979</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G93" s="8">
-        <v>409180009</v>
+        <v>409110001</v>
       </c>
       <c r="H93" s="8">
         <v>100</v>
       </c>
+      <c r="I93" s="9">
+        <v>100</v>
+      </c>
       <c r="J93" s="10">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="7">
-        <v>45979</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="7">
-        <v>45979</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" s="8">
-        <v>409110001</v>
-      </c>
-      <c r="H94" s="8">
-        <v>100</v>
-      </c>
-      <c r="J94" s="10">
         <v>92</v>
       </c>
     </row>
